--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="409">
   <si>
     <t>Property</t>
   </si>
@@ -155,10 +155,6 @@
   <si>
     <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。  
 【JP Core仕様】DiagnosticReportリソースの共通プロフィール</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1775,16 +1771,16 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="AM1" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>41</v>
@@ -1792,10 +1788,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1806,28 +1802,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>56</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1877,13 +1873,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -1906,10 +1902,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1920,25 +1916,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1989,19 +1985,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2018,10 +2014,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2032,28 +2028,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2103,19 +2099,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2132,10 +2128,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2146,7 +2142,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2158,16 +2154,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2193,43 +2189,43 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2246,21 +2242,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2272,16 +2268,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2331,28 +2327,28 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>41</v>
@@ -2360,14 +2356,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2386,16 +2382,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2445,7 +2441,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2466,7 +2462,7 @@
         <v>41</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>41</v>
@@ -2474,14 +2470,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2500,16 +2496,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2559,7 +2555,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2571,7 +2567,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -2580,7 +2576,7 @@
         <v>41</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>41</v>
@@ -2588,14 +2584,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2608,25 +2604,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -2675,7 +2671,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2687,7 +2683,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -2696,7 +2692,7 @@
         <v>41</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>41</v>
@@ -2704,14 +2700,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2727,22 +2723,22 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -2791,7 +2787,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2803,31 +2799,31 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL10" t="s" s="2">
+      <c r="AM10" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AM10" t="s" s="2">
+      <c r="AN10" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2846,19 +2842,19 @@
         <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>41</v>
@@ -2907,7 +2903,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2919,16 +2915,16 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>41</v>
@@ -2936,10 +2932,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2947,34 +2943,34 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="J12" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>41</v>
@@ -2999,71 +2995,71 @@
         <v>41</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
@@ -3075,19 +3071,19 @@
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3113,29 +3109,29 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3147,27 +3143,27 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3178,7 +3174,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>41</v>
@@ -3190,13 +3186,13 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3247,28 +3243,28 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -3276,14 +3272,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3302,16 +3298,16 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M15" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3349,19 +3345,19 @@
         <v>41</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AC15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AC15" t="s" s="2">
+      <c r="AD15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3373,7 +3369,7 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -3382,7 +3378,7 @@
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3390,10 +3386,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3413,22 +3409,22 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3477,7 +3473,7 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3489,16 +3485,16 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3506,10 +3502,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3520,7 +3516,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -3532,13 +3528,13 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3589,28 +3585,28 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -3618,14 +3614,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3644,16 +3640,16 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M18" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3691,19 +3687,19 @@
         <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AC18" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AC18" t="s" s="2">
+      <c r="AD18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3715,7 +3711,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -3724,7 +3720,7 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3732,10 +3728,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3746,31 +3742,31 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
@@ -3819,28 +3815,28 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3848,10 +3844,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3862,28 +3858,28 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3933,28 +3929,28 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3962,10 +3958,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3976,29 +3972,29 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
@@ -4047,28 +4043,28 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -4076,10 +4072,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4090,29 +4086,29 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
@@ -4161,28 +4157,28 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4190,10 +4186,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4204,31 +4200,31 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4277,28 +4273,28 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4306,10 +4302,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4320,31 +4316,31 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K24" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4393,28 +4389,28 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4422,44 +4418,44 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="D25" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K25" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4470,7 +4466,7 @@
         <v>41</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>41</v>
@@ -4485,11 +4481,11 @@
         <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>41</v>
@@ -4507,7 +4503,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4519,27 +4515,27 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4550,7 +4546,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -4562,13 +4558,13 @@
         <v>41</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4619,28 +4615,28 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -4648,14 +4644,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4674,16 +4670,16 @@
         <v>41</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4721,19 +4717,19 @@
         <v>41</v>
       </c>
       <c r="AB27" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AC27" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AC27" t="s" s="2">
+      <c r="AD27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4745,7 +4741,7 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -4754,7 +4750,7 @@
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -4762,10 +4758,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4785,22 +4781,22 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -4849,7 +4845,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4861,16 +4857,16 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -4878,10 +4874,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4892,7 +4888,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -4904,13 +4900,13 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4961,28 +4957,28 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -4990,14 +4986,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5016,16 +5012,16 @@
         <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5063,19 +5059,19 @@
         <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AC30" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AC30" t="s" s="2">
+      <c r="AD30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5087,7 +5083,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -5096,7 +5092,7 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -5104,10 +5100,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5118,31 +5114,31 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5191,28 +5187,28 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -5220,10 +5216,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5234,28 +5230,28 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K32" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5305,28 +5301,28 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -5334,10 +5330,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5348,29 +5344,29 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K33" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5419,28 +5415,28 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5448,10 +5444,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5462,29 +5458,29 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K34" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -5533,28 +5529,28 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5562,10 +5558,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5576,31 +5572,31 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K35" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -5649,28 +5645,28 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5678,10 +5674,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5692,31 +5688,31 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K36" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -5765,28 +5761,28 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5794,39 +5790,39 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K37" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5853,61 +5849,61 @@
         <v>41</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AA37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>246</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5918,7 +5914,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
@@ -5930,13 +5926,13 @@
         <v>41</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5987,28 +5983,28 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -6016,14 +6012,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6042,16 +6038,16 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6089,19 +6085,19 @@
         <v>41</v>
       </c>
       <c r="AB39" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AC39" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AC39" t="s" s="2">
+      <c r="AD39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6113,7 +6109,7 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>41</v>
@@ -6122,7 +6118,7 @@
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -6130,10 +6126,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6153,22 +6149,22 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6205,17 +6201,17 @@
         <v>41</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6227,16 +6223,16 @@
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6244,13 +6240,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C41" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>41</v>
@@ -6260,31 +6256,31 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K41" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N41" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="O41" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>41</v>
@@ -6333,7 +6329,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6345,16 +6341,16 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6362,10 +6358,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6376,7 +6372,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>41</v>
@@ -6388,13 +6384,13 @@
         <v>41</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6445,28 +6441,28 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -6474,14 +6470,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6500,16 +6496,16 @@
         <v>41</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6547,19 +6543,19 @@
         <v>41</v>
       </c>
       <c r="AB43" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AC43" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AC43" t="s" s="2">
+      <c r="AD43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6571,7 +6567,7 @@
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
@@ -6580,7 +6576,7 @@
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6588,10 +6584,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6599,34 +6595,34 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J44" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K44" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="N44" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>41</v>
@@ -6636,7 +6632,7 @@
         <v>41</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>41</v>
@@ -6675,28 +6671,28 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6704,10 +6700,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6718,28 +6714,28 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K45" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6789,28 +6785,28 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6818,10 +6814,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6832,29 +6828,29 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>41</v>
@@ -6864,7 +6860,7 @@
         <v>41</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>41</v>
@@ -6903,28 +6899,28 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -6932,10 +6928,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6946,29 +6942,29 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -6978,7 +6974,7 @@
         <v>41</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>41</v>
@@ -7017,28 +7013,28 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -7046,10 +7042,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7060,31 +7056,31 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K48" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7133,28 +7129,28 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
@@ -7162,10 +7158,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7176,31 +7172,31 @@
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K49" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -7249,28 +7245,28 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>41</v>
@@ -7278,45 +7274,45 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K50" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -7365,74 +7361,74 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K51" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -7481,74 +7477,74 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>301</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J52" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K52" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>41</v>
@@ -7597,74 +7593,74 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J53" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K53" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>41</v>
@@ -7713,43 +7709,43 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>322</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7765,22 +7761,22 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -7829,7 +7825,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -7841,31 +7837,31 @@
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7881,22 +7877,22 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="O55" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -7945,7 +7941,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -7957,27 +7953,27 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8000,19 +7996,19 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>41</v>
@@ -8061,7 +8057,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8073,16 +8069,16 @@
         <v>41</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>41</v>
@@ -8090,14 +8086,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8116,19 +8112,19 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>41</v>
@@ -8177,7 +8173,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8189,16 +8185,16 @@
         <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>41</v>
@@ -8206,10 +8202,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8232,16 +8228,16 @@
         <v>41</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8291,7 +8287,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8303,7 +8299,7 @@
         <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>41</v>
@@ -8312,7 +8308,7 @@
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8320,14 +8316,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8343,22 +8339,22 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -8407,7 +8403,7 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -8419,16 +8415,16 @@
         <v>41</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -8436,10 +8432,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8450,7 +8446,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>41</v>
@@ -8462,13 +8458,13 @@
         <v>41</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8519,28 +8515,28 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>41</v>
@@ -8548,14 +8544,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8574,16 +8570,16 @@
         <v>41</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L61" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M61" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8633,7 +8629,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8645,7 +8641,7 @@
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>41</v>
@@ -8654,7 +8650,7 @@
         <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>41</v>
@@ -8662,14 +8658,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8682,25 +8678,25 @@
         <v>41</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="N62" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -8749,7 +8745,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -8761,7 +8757,7 @@
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>41</v>
@@ -8770,7 +8766,7 @@
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>41</v>
@@ -8778,10 +8774,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8792,7 +8788,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>41</v>
@@ -8804,19 +8800,19 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -8865,19 +8861,19 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>41</v>
@@ -8886,7 +8882,7 @@
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>41</v>
@@ -8894,10 +8890,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8905,31 +8901,31 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J64" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K64" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8979,19 +8975,19 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>41</v>
@@ -9000,7 +8996,7 @@
         <v>41</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -9008,21 +9004,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>41</v>
@@ -9034,19 +9030,19 @@
         <v>41</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>41</v>
@@ -9095,28 +9091,28 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>41</v>
@@ -9124,10 +9120,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9150,16 +9146,16 @@
         <v>41</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="N66" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9185,14 +9181,14 @@
         <v>41</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="AA66" t="s" s="2">
         <v>41</v>
       </c>
@@ -9209,7 +9205,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9221,16 +9217,16 @@
         <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>41</v>
@@ -9238,10 +9234,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9264,19 +9260,19 @@
         <v>41</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>41</v>
@@ -9325,7 +9321,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -9337,16 +9333,16 @@
         <v>41</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>41</v>
